--- a/spliced/falling/2023-03-21_15-34-18/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-18/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0355829000473022</v>
+        <v>-0.0930042341351509</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3640756905078888</v>
+        <v>0.1044579595327377</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06383541971445079</v>
+        <v>-0.295353353023529</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5752823352813721</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5053382515907288</v>
+        <v>0.3640756905078888</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.007177666760981</v>
+        <v>-0.06383541971445079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5288565754890442</v>
+        <v>0.5752823352813721</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7619016766548157</v>
+        <v>0.5053382515907288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2580905556678772</v>
+        <v>-0.007177666760981</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.7357872128486633</v>
+        <v>0.5288565754890442</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0797179117798805</v>
+        <v>0.7619016766548157</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8136724829673767</v>
+        <v>0.2580905556678772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.146135926246643</v>
+        <v>-0.7357872128486633</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6188064813613892</v>
+        <v>-0.0797179117798805</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1640173196792602</v>
+        <v>0.8136724829673767</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8213083148002625</v>
+        <v>-1.146135926246643</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.046079635620117</v>
+        <v>-0.6188064813613892</v>
       </c>
       <c r="C7" t="n">
-        <v>1.09803032875061</v>
+        <v>-0.1640173196792602</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.518305540084839</v>
+        <v>0.8213083148002625</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5958990454673767</v>
+        <v>-3.046079635620117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1006400510668754</v>
+        <v>1.09803032875061</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9292787313461304</v>
+        <v>1.518305540084839</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0415388382971286</v>
+        <v>-0.5958990454673767</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.335643291473389</v>
+        <v>0.1006400510668754</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5500841736793518</v>
+        <v>-0.9292787313461304</v>
       </c>
       <c r="B10" t="n">
-        <v>1.703092336654663</v>
+        <v>0.0415388382971286</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4928155243396759</v>
+        <v>-2.335643291473389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2722931802272796</v>
+        <v>0.5500841736793518</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3020728528499603</v>
+        <v>1.703092336654663</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2756529450416565</v>
+        <v>-0.4928155243396759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.6982190012931824</v>
+        <v>0.2722931802272796</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4492913782596588</v>
+        <v>-0.3020728528499603</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5900958180427551</v>
+        <v>0.2756529450416565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4308127164840698</v>
+        <v>-0.6982190012931824</v>
       </c>
       <c r="B13" t="n">
-        <v>1.22447943687439</v>
+        <v>0.4492913782596588</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.319024384021759</v>
+        <v>-0.5900958180427551</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0684169083833694</v>
+        <v>-0.4308127164840698</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4977024495601654</v>
+        <v>1.22447943687439</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0363464802503585</v>
+        <v>-0.319024384021759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1298088580369949</v>
+        <v>-0.0684169083833694</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0172569435089826</v>
+        <v>0.4977024495601654</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1985312104225158</v>
+        <v>-0.0363464802503585</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0598647929728031</v>
+        <v>-0.1298088580369949</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5253441333770752</v>
+        <v>0.0172569435089826</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0415388382971286</v>
+        <v>0.1985312104225158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1009454801678657</v>
+        <v>0.0598647929728031</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2724458873271942</v>
+        <v>0.5253441333770752</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4051563739776611</v>
+        <v>-0.0415388382971286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0010690141934901</v>
+        <v>-0.1009454801678657</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1505782902240753</v>
+        <v>0.2724458873271942</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0145080499351024</v>
+        <v>-0.4051563739776611</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1108720451593399</v>
+        <v>-0.0010690141934901</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0652098655700683</v>
+        <v>-0.1505782902240753</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.131183311343193</v>
+        <v>0.0145080499351024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0563523173332214</v>
+        <v>-0.1108720451593399</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0316122770309448</v>
+        <v>0.0652098655700683</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1798998117446899</v>
+        <v>-0.131183311343193</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.0160352122038602</v>
+        <v>0.0563523173332214</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0537561401724815</v>
+        <v>0.0316122770309448</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.0355829000473022</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.0247400421649217</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.0786489024758338</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0580321997404098</v>
+        <v>0.1798998117446899</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-18/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-18/gyroscope_selected.xlsx
@@ -452,222 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0930042341351509</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1044579595327377</v>
+        <v>0.3640756905078888</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.295353353023529</v>
+        <v>-0.06383541971445079</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0355829000473022</v>
+        <v>0.5752823352813721</v>
       </c>
       <c r="B3" t="n">
-        <v>0.3640756905078888</v>
+        <v>0.5053382515907288</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.06383541971445079</v>
+        <v>-0.007177666760981</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5752823352813721</v>
+        <v>0.5288565754890442</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5053382515907288</v>
+        <v>0.7619016766548157</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.007177666760981</v>
+        <v>0.2580905556678772</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.5288565754890442</v>
+        <v>-0.7357872128486633</v>
       </c>
       <c r="B5" t="n">
-        <v>0.7619016766548157</v>
+        <v>-0.0797179117798805</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2580905556678772</v>
+        <v>0.8136724829673767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.7357872128486633</v>
+        <v>-1.146135926246643</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.0797179117798805</v>
+        <v>-0.6188064813613892</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8136724829673767</v>
+        <v>-0.1640173196792602</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.146135926246643</v>
+        <v>0.8213083148002625</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.6188064813613892</v>
+        <v>-3.046079635620117</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1640173196792602</v>
+        <v>1.09803032875061</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8213083148002625</v>
+        <v>1.518305540084839</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.046079635620117</v>
+        <v>-0.5958990454673767</v>
       </c>
       <c r="C8" t="n">
-        <v>1.09803032875061</v>
+        <v>0.1006400510668754</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.518305540084839</v>
+        <v>-0.9292787313461304</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.5958990454673767</v>
+        <v>0.0415388382971286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1006400510668754</v>
+        <v>-2.335643291473389</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9292787313461304</v>
+        <v>0.5500841736793518</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0415388382971286</v>
+        <v>1.703092336654663</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.335643291473389</v>
+        <v>-0.4928155243396759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.5500841736793518</v>
+        <v>0.2722931802272796</v>
       </c>
       <c r="B11" t="n">
-        <v>1.703092336654663</v>
+        <v>-0.3020728528499603</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.4928155243396759</v>
+        <v>0.2756529450416565</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2722931802272796</v>
+        <v>-0.6982190012931824</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.3020728528499603</v>
+        <v>0.4492913782596588</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2756529450416565</v>
+        <v>-0.5900958180427551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6982190012931824</v>
+        <v>-0.4308127164840698</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4492913782596588</v>
+        <v>1.22447943687439</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.5900958180427551</v>
+        <v>-0.319024384021759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.4308127164840698</v>
+        <v>-0.0684169083833694</v>
       </c>
       <c r="B14" t="n">
-        <v>1.22447943687439</v>
+        <v>0.4977024495601654</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.319024384021759</v>
+        <v>-0.0363464802503585</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.0684169083833694</v>
+        <v>-0.1298088580369949</v>
       </c>
       <c r="B15" t="n">
-        <v>0.4977024495601654</v>
+        <v>0.0172569435089826</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0363464802503585</v>
+        <v>0.1985312104225158</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.1298088580369949</v>
+        <v>0.0598647929728031</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0172569435089826</v>
+        <v>0.5253441333770752</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1985312104225158</v>
+        <v>-0.0415388382971286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0598647929728031</v>
+        <v>-0.1009454801678657</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5253441333770752</v>
+        <v>0.2724458873271942</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0415388382971286</v>
+        <v>-0.4051563739776611</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1009454801678657</v>
+        <v>-0.0010690141934901</v>
       </c>
       <c r="B18" t="n">
-        <v>0.2724458873271942</v>
+        <v>-0.1505782902240753</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4051563739776611</v>
+        <v>0.0145080499351024</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.0010690141934901</v>
+        <v>-0.1108720451593399</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1505782902240753</v>
+        <v>0.0652098655700683</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0145080499351024</v>
+        <v>-0.131183311343193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1108720451593399</v>
+        <v>0.0563523173332214</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0652098655700683</v>
+        <v>0.0316122770309448</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.131183311343193</v>
+        <v>0.1798998117446899</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0563523173332214</v>
+        <v>-0.0160352122038602</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0316122770309448</v>
+        <v>0.0537561401724815</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1798998117446899</v>
+        <v>-0.0355829000473022</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-21_15-34-18/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-21_15-34-18/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0355829000473022</v>
+        <v>-0.1621847152709961</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3640756905078888</v>
+        <v>-0.07956519722938531</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.06383541971445079</v>
+        <v>-0.5577199459075928</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.5752823352813721</v>
+        <v>-0.1879937797784805</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5053382515907288</v>
+        <v>-0.1305724531412124</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.007177666760981</v>
+        <v>-0.08170322328805921</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.5288565754890442</v>
+        <v>-0.0765108689665794</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7619016766548157</v>
+        <v>-0.2229658216238021</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2580905556678772</v>
+        <v>-0.0765108689665794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.7357872128486633</v>
+        <v>-0.0930042341351509</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0797179117798805</v>
+        <v>0.1044579595327377</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8136724829673767</v>
+        <v>-0.295353353023529</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.146135926246643</v>
+        <v>0.0355829000473022</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6188064813613892</v>
+        <v>0.3640756905078888</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1640173196792602</v>
+        <v>-0.06383541971445079</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8213083148002625</v>
+        <v>0.5752823352813721</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.046079635620117</v>
+        <v>0.5053382515907288</v>
       </c>
       <c r="C7" t="n">
-        <v>1.09803032875061</v>
+        <v>-0.007177666760981</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.518305540084839</v>
+        <v>0.5288565754890442</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.5958990454673767</v>
+        <v>0.7619016766548157</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1006400510668754</v>
+        <v>0.2580905556678772</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9292787313461304</v>
+        <v>-0.7357872128486633</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0415388382971286</v>
+        <v>-0.0797179117798805</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.335643291473389</v>
+        <v>0.8136724829673767</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.5500841736793518</v>
+        <v>-1.146135926246643</v>
       </c>
       <c r="B10" t="n">
-        <v>1.703092336654663</v>
+        <v>-0.6188064813613892</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.4928155243396759</v>
+        <v>-0.1640173196792602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.2722931802272796</v>
+        <v>0.8213083148002625</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3020728528499603</v>
+        <v>-3.046079635620117</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2756529450416565</v>
+        <v>1.09803032875061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.6982190012931824</v>
+        <v>1.518305540084839</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4492913782596588</v>
+        <v>-0.5958990454673767</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5900958180427551</v>
+        <v>0.1006400510668754</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.4308127164840698</v>
+        <v>-0.9292787313461304</v>
       </c>
       <c r="B13" t="n">
-        <v>1.22447943687439</v>
+        <v>0.0415388382971286</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.319024384021759</v>
+        <v>-2.335643291473389</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0684169083833694</v>
+        <v>0.5500841736793518</v>
       </c>
       <c r="B14" t="n">
-        <v>0.4977024495601654</v>
+        <v>1.703092336654663</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0363464802503585</v>
+        <v>-0.4928155243396759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.1298088580369949</v>
+        <v>0.2722931802272796</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0172569435089826</v>
+        <v>-0.3020728528499603</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1985312104225158</v>
+        <v>0.2756529450416565</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.0598647929728031</v>
+        <v>-0.6982190012931824</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5253441333770752</v>
+        <v>0.4492913782596588</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0415388382971286</v>
+        <v>-0.5900958180427551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.1009454801678657</v>
+        <v>-0.4308127164840698</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2724458873271942</v>
+        <v>1.22447943687439</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4051563739776611</v>
+        <v>-0.319024384021759</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.0010690141934901</v>
+        <v>-0.0684169083833694</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1505782902240753</v>
+        <v>0.4977024495601654</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0145080499351024</v>
+        <v>-0.0363464802503585</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1108720451593399</v>
+        <v>-0.1298088580369949</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0652098655700683</v>
+        <v>0.0172569435089826</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.131183311343193</v>
+        <v>0.1985312104225158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0563523173332214</v>
+        <v>0.0598647929728031</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0316122770309448</v>
+        <v>0.5253441333770752</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1798998117446899</v>
+        <v>-0.0415388382971286</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>-0.1009454801678657</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.2724458873271942</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.4051563739776611</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.0010690141934901</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.1505782902240753</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0145080499351024</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.1108720451593399</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0652098655700683</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.131183311343193</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.0563523173332214</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0316122770309448</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1798998117446899</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
         <v>-0.0160352122038602</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>0.0537561401724815</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>-0.0355829000473022</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.0247400421649217</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0786489024758338</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.0580321997404098</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.026419922709465</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.0665843114256858</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.07590000331401819</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0235183127224445</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.012980886735022</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.0116064399480819</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.009315694682300001</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.0103847095742821</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0035124751739203</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.0279470849782228</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.0250454749912023</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.00335975876078</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.0271835029125213</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0594066455960273</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.0343611687421798</v>
       </c>
     </row>
   </sheetData>
